--- a/Prevalensi Pneumonia pada Balita Menurut Provinsi 2023.xlsx
+++ b/Prevalensi Pneumonia pada Balita Menurut Provinsi 2023.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37d21045a83a8e50/Dokumen/SEMESTER 3/SEMESTER 4/ANREG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_7026B489175516CFEB3B98154B5DCE3A3743580F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E79468-B316-4564-806D-31B2E490FBCB}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_7026B489175516CFEB3B98154B5DCE3A3743580F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6B1DBA1-55DD-4491-ADFF-3C95A9C64062}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pneumonia Balita SKI 2023" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA GABUNGAN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Provinsi</t>
   </si>
@@ -146,14 +160,49 @@
   </si>
   <si>
     <t>D/G</t>
+  </si>
+  <si>
+    <t>Total Jumlah Perokok Diatas 15 Tahun</t>
+  </si>
+  <si>
+    <t>Indeks Kualitas Udara</t>
+  </si>
+  <si>
+    <t>Indeks Kualitas Air</t>
+  </si>
+  <si>
+    <t>Persentase Anak Umur 12-23 Bulan yang Menerima Imunisasi Dasar Lengkap Menurut Provinsi (Persen)</t>
+  </si>
+  <si>
+    <t>Persentase Rumah Tangga menurut Provinsi dan Memiliki Akses terhadap Sanitasi Layak (Persen)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Jumlah Penduduk (Ribu)</t>
+  </si>
+  <si>
+    <t>Prevalensi Balita Stunting</t>
+  </si>
+  <si>
+    <t>Prevalensi Balita Pneumonia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -181,8 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +250,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1042,4 +1098,1183 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412127B1-C8AF-4764-9AFD-E22813AC6AC0}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+      <c r="C2">
+        <v>169.86999999999998</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+      <c r="H2">
+        <v>29.4</v>
+      </c>
+      <c r="I2">
+        <v>5482.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>157.46</v>
+      </c>
+      <c r="D3">
+        <v>90.94</v>
+      </c>
+      <c r="E3">
+        <v>61.3</v>
+      </c>
+      <c r="F3">
+        <v>24.79</v>
+      </c>
+      <c r="G3">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="H3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I3">
+        <v>15386.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>180.41</v>
+      </c>
+      <c r="D4">
+        <v>90.9</v>
+      </c>
+      <c r="E4">
+        <v>60.27</v>
+      </c>
+      <c r="F4">
+        <v>41.04</v>
+      </c>
+      <c r="G4">
+        <v>84.18</v>
+      </c>
+      <c r="H4">
+        <v>23.6</v>
+      </c>
+      <c r="I4">
+        <v>5757.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>164.29999999999998</v>
+      </c>
+      <c r="D5">
+        <v>90.53</v>
+      </c>
+      <c r="E5">
+        <v>57.05</v>
+      </c>
+      <c r="F5">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="G5">
+        <v>70.97</v>
+      </c>
+      <c r="H5">
+        <v>13.6</v>
+      </c>
+      <c r="I5">
+        <v>6642.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>167.51</v>
+      </c>
+      <c r="D6">
+        <v>90.89</v>
+      </c>
+      <c r="E6">
+        <v>50.84</v>
+      </c>
+      <c r="F6">
+        <v>45.03</v>
+      </c>
+      <c r="G6">
+        <v>84.58</v>
+      </c>
+      <c r="H6">
+        <v>13.5</v>
+      </c>
+      <c r="I6">
+        <v>3679.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>181.74</v>
+      </c>
+      <c r="D7">
+        <v>90.57</v>
+      </c>
+      <c r="E7">
+        <v>46.06</v>
+      </c>
+      <c r="F7">
+        <v>52.99</v>
+      </c>
+      <c r="G7">
+        <v>83.04</v>
+      </c>
+      <c r="H7">
+        <v>20.3</v>
+      </c>
+      <c r="I7">
+        <v>8743.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>188.86</v>
+      </c>
+      <c r="D8">
+        <v>87.76</v>
+      </c>
+      <c r="E8">
+        <v>58.16</v>
+      </c>
+      <c r="F8">
+        <v>54.3</v>
+      </c>
+      <c r="G8">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="H8">
+        <v>20.2</v>
+      </c>
+      <c r="I8">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>202.5</v>
+      </c>
+      <c r="D9">
+        <v>92.49</v>
+      </c>
+      <c r="E9">
+        <v>48.98</v>
+      </c>
+      <c r="F9">
+        <v>71.41</v>
+      </c>
+      <c r="G9">
+        <v>80.28</v>
+      </c>
+      <c r="H9">
+        <v>14.9</v>
+      </c>
+      <c r="I9">
+        <v>9314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>158.00000000000003</v>
+      </c>
+      <c r="D10">
+        <v>88.04</v>
+      </c>
+      <c r="E10">
+        <v>55.36</v>
+      </c>
+      <c r="F10">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="G10">
+        <v>84.58</v>
+      </c>
+      <c r="H10">
+        <v>20.6</v>
+      </c>
+      <c r="I10">
+        <v>1511.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="C11">
+        <v>147.91999999999999</v>
+      </c>
+      <c r="D11">
+        <v>90.15</v>
+      </c>
+      <c r="E11">
+        <v>57.43</v>
+      </c>
+      <c r="F11">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="G11">
+        <v>93.21</v>
+      </c>
+      <c r="H11">
+        <v>16.8</v>
+      </c>
+      <c r="I11">
+        <v>2152.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C12">
+        <v>127.42999999999999</v>
+      </c>
+      <c r="D12">
+        <v>90.13</v>
+      </c>
+      <c r="E12">
+        <v>54.93</v>
+      </c>
+      <c r="F12">
+        <v>70.75</v>
+      </c>
+      <c r="G12">
+        <v>91.1</v>
+      </c>
+      <c r="H12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I12">
+        <v>10672.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1.3</v>
+      </c>
+      <c r="C13">
+        <v>195.60999999999999</v>
+      </c>
+      <c r="D13">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="E13">
+        <v>40.76</v>
+      </c>
+      <c r="F13">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="G13">
+        <v>93.5</v>
+      </c>
+      <c r="H13">
+        <v>21.7</v>
+      </c>
+      <c r="I13">
+        <v>49860.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>170</v>
+      </c>
+      <c r="D14">
+        <v>81.39</v>
+      </c>
+      <c r="E14">
+        <v>46.87</v>
+      </c>
+      <c r="F14">
+        <v>64.45</v>
+      </c>
+      <c r="G14">
+        <v>74.88</v>
+      </c>
+      <c r="H14">
+        <v>20.7</v>
+      </c>
+      <c r="I14">
+        <v>37541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1.9</v>
+      </c>
+      <c r="C15">
+        <v>146.21</v>
+      </c>
+      <c r="D15">
+        <v>86.35</v>
+      </c>
+      <c r="E15">
+        <v>51.23</v>
+      </c>
+      <c r="F15">
+        <v>74.83</v>
+      </c>
+      <c r="G15">
+        <v>85.2</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>3736.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.6</v>
+      </c>
+      <c r="C16">
+        <v>170.74</v>
+      </c>
+      <c r="D16">
+        <v>89.01</v>
+      </c>
+      <c r="E16">
+        <v>40.28</v>
+      </c>
+      <c r="F16">
+        <v>84.5</v>
+      </c>
+      <c r="G16">
+        <v>96.42</v>
+      </c>
+      <c r="H16">
+        <v>17.7</v>
+      </c>
+      <c r="I16">
+        <v>41527.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1.3</v>
+      </c>
+      <c r="C17">
+        <v>174.25</v>
+      </c>
+      <c r="D17">
+        <v>84.73</v>
+      </c>
+      <c r="E17">
+        <v>55.86</v>
+      </c>
+      <c r="F17">
+        <v>75.41</v>
+      </c>
+      <c r="G17">
+        <v>83.72</v>
+      </c>
+      <c r="H17">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>12307.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <v>108.82</v>
+      </c>
+      <c r="D18">
+        <v>66.67</v>
+      </c>
+      <c r="E18">
+        <v>58.93</v>
+      </c>
+      <c r="F18">
+        <v>50.82</v>
+      </c>
+      <c r="G18">
+        <v>86.41</v>
+      </c>
+      <c r="H18">
+        <v>7.2</v>
+      </c>
+      <c r="I18">
+        <v>4404.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1.3</v>
+      </c>
+      <c r="C19">
+        <v>194.95999999999998</v>
+      </c>
+      <c r="D19">
+        <v>88.99</v>
+      </c>
+      <c r="E19">
+        <v>55.17</v>
+      </c>
+      <c r="F19">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="G19">
+        <v>95.7</v>
+      </c>
+      <c r="H19">
+        <v>24.6</v>
+      </c>
+      <c r="I19">
+        <v>5560.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1.2</v>
+      </c>
+      <c r="C20">
+        <v>157.02000000000001</v>
+      </c>
+      <c r="D20">
+        <v>90.21</v>
+      </c>
+      <c r="E20">
+        <v>47.78</v>
+      </c>
+      <c r="F20">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="G20">
+        <v>85.11</v>
+      </c>
+      <c r="H20">
+        <v>37.9</v>
+      </c>
+      <c r="I20">
+        <v>5569.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.7</v>
+      </c>
+      <c r="C21">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="D21">
+        <v>92.03</v>
+      </c>
+      <c r="E21">
+        <v>54.65</v>
+      </c>
+      <c r="F21">
+        <v>72.12</v>
+      </c>
+      <c r="G21">
+        <v>75.67</v>
+      </c>
+      <c r="H21">
+        <v>24.5</v>
+      </c>
+      <c r="I21">
+        <v>5623.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.7</v>
+      </c>
+      <c r="C22">
+        <v>160.64000000000001</v>
+      </c>
+      <c r="D22">
+        <v>92.03</v>
+      </c>
+      <c r="E22">
+        <v>52.97</v>
+      </c>
+      <c r="F22">
+        <v>53.78</v>
+      </c>
+      <c r="G22">
+        <v>79.89</v>
+      </c>
+      <c r="H22">
+        <v>23.5</v>
+      </c>
+      <c r="I22">
+        <v>2773.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.9</v>
+      </c>
+      <c r="C23">
+        <v>129.60000000000002</v>
+      </c>
+      <c r="D23">
+        <v>91.47</v>
+      </c>
+      <c r="E23">
+        <v>53.9</v>
+      </c>
+      <c r="F23">
+        <v>56.36</v>
+      </c>
+      <c r="G23">
+        <v>76.31</v>
+      </c>
+      <c r="H23">
+        <v>24.7</v>
+      </c>
+      <c r="I23">
+        <v>4222.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1.5</v>
+      </c>
+      <c r="C24">
+        <v>133.64000000000001</v>
+      </c>
+      <c r="D24">
+        <v>92.85</v>
+      </c>
+      <c r="E24">
+        <v>55.64</v>
+      </c>
+      <c r="F24">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G24">
+        <v>82.89</v>
+      </c>
+      <c r="H24">
+        <v>22.9</v>
+      </c>
+      <c r="I24">
+        <v>3909.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1.2</v>
+      </c>
+      <c r="C25">
+        <v>148.39000000000001</v>
+      </c>
+      <c r="D25">
+        <v>89.64</v>
+      </c>
+      <c r="E25">
+        <v>52.64</v>
+      </c>
+      <c r="F25">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="G25">
+        <v>91.21</v>
+      </c>
+      <c r="H25">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0.4</v>
+      </c>
+      <c r="C26">
+        <v>158.51999999999998</v>
+      </c>
+      <c r="D26">
+        <v>93.91</v>
+      </c>
+      <c r="E26">
+        <v>55.93</v>
+      </c>
+      <c r="F26">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="G26">
+        <v>84.22</v>
+      </c>
+      <c r="H26">
+        <v>21.3</v>
+      </c>
+      <c r="I26">
+        <v>2681.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.7</v>
+      </c>
+      <c r="C27">
+        <v>167.84000000000003</v>
+      </c>
+      <c r="D27">
+        <v>93.52</v>
+      </c>
+      <c r="E27">
+        <v>52.12</v>
+      </c>
+      <c r="F27">
+        <v>67.8</v>
+      </c>
+      <c r="G27">
+        <v>85.91</v>
+      </c>
+      <c r="H27">
+        <v>27.2</v>
+      </c>
+      <c r="I27">
+        <v>3086.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0.9</v>
+      </c>
+      <c r="C28">
+        <v>142.06</v>
+      </c>
+      <c r="D28">
+        <v>91.88</v>
+      </c>
+      <c r="E28">
+        <v>63.63</v>
+      </c>
+      <c r="F28">
+        <v>60.82</v>
+      </c>
+      <c r="G28">
+        <v>75.8</v>
+      </c>
+      <c r="H28">
+        <v>27.4</v>
+      </c>
+      <c r="I28">
+        <v>9362.2999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>148.26</v>
+      </c>
+      <c r="D29">
+        <v>90.58</v>
+      </c>
+      <c r="E29">
+        <v>57.95</v>
+      </c>
+      <c r="F29">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="G29">
+        <v>93.69</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <v>184.63</v>
+      </c>
+      <c r="D30">
+        <v>92.83</v>
+      </c>
+      <c r="E30">
+        <v>61.28</v>
+      </c>
+      <c r="F30">
+        <v>71.81</v>
+      </c>
+      <c r="G30">
+        <v>88.99</v>
+      </c>
+      <c r="H30">
+        <v>26.9</v>
+      </c>
+      <c r="I30">
+        <v>1213.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>146.07999999999998</v>
+      </c>
+      <c r="D31">
+        <v>94.43</v>
+      </c>
+      <c r="E31">
+        <v>58.7</v>
+      </c>
+      <c r="F31">
+        <v>70.56</v>
+      </c>
+      <c r="G31">
+        <v>81.72</v>
+      </c>
+      <c r="H31">
+        <v>30.3</v>
+      </c>
+      <c r="I31">
+        <v>1481.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0.3</v>
+      </c>
+      <c r="C32">
+        <v>169.19</v>
+      </c>
+      <c r="D32">
+        <v>93.33</v>
+      </c>
+      <c r="E32">
+        <v>58.82</v>
+      </c>
+      <c r="F32">
+        <v>58.44</v>
+      </c>
+      <c r="G32">
+        <v>80.73</v>
+      </c>
+      <c r="H32">
+        <v>28.4</v>
+      </c>
+      <c r="I32">
+        <v>1920.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="C33">
+        <v>173.24</v>
+      </c>
+      <c r="D33">
+        <v>92.47</v>
+      </c>
+      <c r="E33">
+        <v>55.87</v>
+      </c>
+      <c r="F33">
+        <v>60.12</v>
+      </c>
+      <c r="G33">
+        <v>78.17</v>
+      </c>
+      <c r="H33">
+        <v>23.7</v>
+      </c>
+      <c r="I33">
+        <v>1337.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0.6</v>
+      </c>
+      <c r="C34">
+        <v>147.61000000000001</v>
+      </c>
+      <c r="D34">
+        <v>93.19</v>
+      </c>
+      <c r="E34">
+        <v>61.05</v>
+      </c>
+      <c r="F34">
+        <v>52.55</v>
+      </c>
+      <c r="G34">
+        <v>80.64</v>
+      </c>
+      <c r="H34">
+        <v>24.8</v>
+      </c>
+      <c r="I34">
+        <v>1187.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1.4</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>96.22</v>
+      </c>
+      <c r="E35">
+        <v>59.52</v>
+      </c>
+      <c r="F35">
+        <v>57.08</v>
+      </c>
+      <c r="G35">
+        <v>76.3</v>
+      </c>
+      <c r="H35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1.4</v>
+      </c>
+      <c r="C36">
+        <v>132.46</v>
+      </c>
+      <c r="D36">
+        <v>96.28</v>
+      </c>
+      <c r="E36">
+        <v>55.61</v>
+      </c>
+      <c r="F36">
+        <v>49.74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36">
+        <v>28.6</v>
+      </c>
+      <c r="I36">
+        <v>4482.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1.5</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>95.87</v>
+      </c>
+      <c r="E37">
+        <v>54.73</v>
+      </c>
+      <c r="F37">
+        <v>52.64</v>
+      </c>
+      <c r="G37">
+        <v>43</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>3.7</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>95.44</v>
+      </c>
+      <c r="E38">
+        <v>60.73</v>
+      </c>
+      <c r="F38">
+        <v>71.87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>5.3</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>95.33</v>
+      </c>
+      <c r="E39">
+        <v>64.67</v>
+      </c>
+      <c r="F39">
+        <v>30.21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>169.41000000000003</v>
+      </c>
+      <c r="D40">
+        <v>97.68</v>
+      </c>
+      <c r="E40">
+        <v>63.18</v>
+      </c>
+      <c r="F40">
+        <v>30.72</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40">
+        <v>278696.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>88.67</v>
+      </c>
+      <c r="E41">
+        <v>54.59</v>
+      </c>
+      <c r="F41">
+        <v>63.58</v>
+      </c>
+      <c r="G41">
+        <v>82.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>